--- a/data/_metadata/dicts/raw_SIMAT_2004-2022_clean.xlsx
+++ b/data/_metadata/dicts/raw_SIMAT_2004-2022_clean.xlsx
@@ -1443,7 +1443,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1466,229 +1466,234 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dir_res</t>
+          <t>Tel_res</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AL_TELE_RESI</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>direc_residencia</t>
+          <t>telefono</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>direc_resid</t>
+          <t>tel_ubicac</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>direccion_residencia</t>
+          <t>tel</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TEL</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>character; numeric</t>
         </is>
       </c>
       <c r="E10">
-        <v>57.57575757575763</v>
+        <v>57.5757575757576</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tel_res</t>
+          <t>Cons_sede</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>AL_TELE_RESI</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>Cons_sede</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>telefono</t>
+          <t>cons_sede</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>tel_ubicac</t>
+          <t>cons_sede</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>tel</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>TEL</t>
+          <t>cons_sede</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>character; numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E11">
@@ -1696,104 +1701,104 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cons_sede</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>CONS_SEDE</t>
+          <t>Genero</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cons_sede</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cons_sede</t>
+          <t>genero</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>cons_sede</t>
+          <t>genero</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>cons_sede</t>
+          <t>genero</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>GENERO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1812,101 +1817,96 @@
         </is>
       </c>
       <c r="E12">
-        <v>57.5757575757576</v>
+        <v>54.5454545454546</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Genero</t>
+          <t>Dir_res</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>genero</t>
+          <t>direc_residencia</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>genero</t>
+          <t>direc_resid</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>genero</t>
+          <t>direccion_residencia</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>GENERO</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
     </row>
@@ -10188,87 +10188,87 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORDEN</t>
+          <t>NRO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E157">
         <v>6.06060606060606</v>
       </c>
-      <c r="Y157" t="inlineStr">
-        <is>
-          <t>Orden</t>
-        </is>
-      </c>
-      <c r="AE157" t="inlineStr">
-        <is>
-          <t>Orden</t>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NdocAcud</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>AL_CEDU_ACUD</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PE_CODI_ID</t>
+          <t>ORDEN</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>character; numeric</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>character; numeric</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E158">
         <v>6.06060606060606</v>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>PE_CODI_ID</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>pe_codi_id</t>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>Orden</t>
+        </is>
+      </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>Orden</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PREESTACION SERV</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>PE_CODI_ID</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>character; numeric</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>character; numeric</t>
         </is>
       </c>
       <c r="E159">
@@ -10276,19 +10276,19 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Preestacion Serv</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Preestacion Serv</t>
+          <t>PE_CODI_ID</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>pe_codi_id</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PREST SERVICIO</t>
+          <t>PREESTACION SERV</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -10309,21 +10309,21 @@
       <c r="E160">
         <v>6.06060606060606</v>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Prest Servicio</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>PREST SERVICIO</t>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Preestacion Serv</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Preestacion Serv</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRESTACION DEL SERVICIO</t>
+          <t>PREST SERVICIO</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -10344,21 +10344,21 @@
       <c r="E161">
         <v>6.06060606060606</v>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>Prestacion del servicio</t>
-        </is>
-      </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>PRESTACION DEL SERVICIO</t>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Prest Servicio</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>PREST SERVICIO</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRESTACIÒN DEL SERVICIO</t>
+          <t>PRESTACION DEL SERVICIO</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -10379,21 +10379,21 @@
       <c r="E162">
         <v>6.06060606060606</v>
       </c>
-      <c r="U162" t="inlineStr">
-        <is>
-          <t>Prestaciòn del Servicio</t>
-        </is>
-      </c>
-      <c r="V162" t="inlineStr">
-        <is>
-          <t>Prestaciòn del Servicio</t>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Prestacion del servicio</t>
+        </is>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>PRESTACION DEL SERVICIO</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SECTOR</t>
+          <t>PRESTACIÒN DEL SERVICIO</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -10414,21 +10414,21 @@
       <c r="E163">
         <v>6.06060606060606</v>
       </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>SECTOR</t>
-        </is>
-      </c>
-      <c r="AD163" t="inlineStr">
-        <is>
-          <t>SECTOR</t>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>Prestaciòn del Servicio</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>Prestaciòn del Servicio</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SEDE</t>
+          <t>SECTOR</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -10449,51 +10449,56 @@
       <c r="E164">
         <v>6.06060606060606</v>
       </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>SEDE</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>SEDE</t>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>SECTOR</t>
+        </is>
+      </c>
+      <c r="AD164" t="inlineStr">
+        <is>
+          <t>SECTOR</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>SEDE</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E165">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="U165" t="inlineStr">
-        <is>
-          <t>-1</t>
+        <v>6.06060606060606</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>SEDE</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>SEDE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -10516,74 +10521,74 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>...1</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E167">
         <v>3.03030303030303</v>
       </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>...1</t>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>-2</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>...20</t>
+          <t>...1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E168">
         <v>3.03030303030303</v>
       </c>
-      <c r="AJ168" t="inlineStr">
-        <is>
-          <t>...20</t>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>...1</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>...21</t>
+          <t>...20</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -10606,14 +10611,14 @@
       </c>
       <c r="AJ169" t="inlineStr">
         <is>
-          <t>...21</t>
+          <t>...20</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>...22</t>
+          <t>...21</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -10636,14 +10641,14 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>...22</t>
+          <t>...21</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>...23</t>
+          <t>...22</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -10666,14 +10671,14 @@
       </c>
       <c r="AJ171" t="inlineStr">
         <is>
-          <t>...23</t>
+          <t>...22</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>...24</t>
+          <t>...23</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -10696,29 +10701,29 @@
       </c>
       <c r="AJ172" t="inlineStr">
         <is>
-          <t>...24</t>
+          <t>...23</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>...25</t>
+          <t>...24</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E173">
@@ -10726,44 +10731,44 @@
       </c>
       <c r="AJ173" t="inlineStr">
         <is>
-          <t>...25</t>
+          <t>...24</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>...26</t>
+          <t>...25</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E174">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA174" t="inlineStr">
-        <is>
-          <t>...26</t>
+      <c r="AJ174" t="inlineStr">
+        <is>
+          <t>...25</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>...27</t>
+          <t>...26</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -10786,44 +10791,44 @@
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>...27</t>
+          <t>...26</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...27</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E176">
         <v>3.03030303030303</v>
       </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>...27</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -10846,14 +10851,14 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -10876,14 +10881,14 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10906,74 +10911,74 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>11383</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E180">
         <v>3.03030303030303</v>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>11383</t>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11383</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E181">
         <v>3.03030303030303</v>
       </c>
-      <c r="U181" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>11383</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -10996,14 +11001,14 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -11026,14 +11031,14 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -11056,14 +11061,14 @@
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -11086,14 +11091,14 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -11116,14 +11121,14 @@
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -11146,14 +11151,14 @@
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -11176,14 +11181,14 @@
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -11206,14 +11211,14 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>36982</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -11234,16 +11239,16 @@
       <c r="E190">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH190" t="inlineStr">
-        <is>
-          <t>36982</t>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>37012</t>
+          <t>36982</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -11266,14 +11271,14 @@
       </c>
       <c r="AH191" t="inlineStr">
         <is>
-          <t>37012</t>
+          <t>36982</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>37043</t>
+          <t>37012</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11296,14 +11301,14 @@
       </c>
       <c r="AH192" t="inlineStr">
         <is>
-          <t>37043</t>
+          <t>37012</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>37073</t>
+          <t>37043</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11326,14 +11331,14 @@
       </c>
       <c r="AH193" t="inlineStr">
         <is>
-          <t>37073</t>
+          <t>37043</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>37104</t>
+          <t>37073</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -11356,14 +11361,14 @@
       </c>
       <c r="AH194" t="inlineStr">
         <is>
-          <t>37104</t>
+          <t>37073</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>37135</t>
+          <t>37104</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11386,14 +11391,14 @@
       </c>
       <c r="AH195" t="inlineStr">
         <is>
-          <t>37135</t>
+          <t>37104</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>37165</t>
+          <t>37135</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -11416,14 +11421,14 @@
       </c>
       <c r="AH196" t="inlineStr">
         <is>
-          <t>37165</t>
+          <t>37135</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>37196</t>
+          <t>37165</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -11446,134 +11451,134 @@
       </c>
       <c r="AH197" t="inlineStr">
         <is>
-          <t>37196</t>
+          <t>37165</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>39538</t>
+          <t>37196</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E198">
         <v>3.03030303030303</v>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>39538</t>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>37196</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>39538</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E199">
         <v>3.03030303030303</v>
       </c>
-      <c r="U199" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>39538</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>41364</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E200">
         <v>3.03030303030303</v>
       </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>41364</t>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>43921</t>
+          <t>41364</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E201">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH201" t="inlineStr">
-        <is>
-          <t>43921</t>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>41364</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>44286</t>
+          <t>43921</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11594,16 +11599,16 @@
       <c r="E202">
         <v>3.03030303030303</v>
       </c>
-      <c r="AK202" t="inlineStr">
-        <is>
-          <t>44286</t>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>43921</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>44286</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11624,16 +11629,16 @@
       <c r="E203">
         <v>3.03030303030303</v>
       </c>
-      <c r="U203" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>44286</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11656,14 +11661,14 @@
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -11686,14 +11691,14 @@
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -11716,14 +11721,14 @@
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -11746,14 +11751,14 @@
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -11776,14 +11781,14 @@
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -11806,44 +11811,44 @@
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AGUDEZVIS</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E210">
         <v>3.03030303030303</v>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>AgudezVis</t>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ALMUERZO</t>
+          <t>AGUDEZVIS</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -11866,14 +11871,14 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Almuerzo</t>
+          <t>AgudezVis</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ALUM_MADRE_CAB_FLIA</t>
+          <t>ALMUERZO</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -11894,16 +11899,16 @@
       <c r="E212">
         <v>3.03030303030303</v>
       </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>alum_madre_cab_flia</t>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Almuerzo</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AL_FACT_RH</t>
+          <t>ALUM_MADRE_CAB_FLIA</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -11924,31 +11929,31 @@
       <c r="E213">
         <v>3.03030303030303</v>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>AL_FACT_RH</t>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>alum_madre_cab_flia</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AL_FECH_ESTA</t>
+          <t>AL_FACT_RH</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E214">
@@ -11956,14 +11961,14 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>AL_FECH_ESTA</t>
+          <t>AL_FACT_RH</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AL_FECH_NACI</t>
+          <t>AL_FECH_ESTA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11986,29 +11991,29 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>AL_FECH_NACI</t>
+          <t>AL_FECH_ESTA</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AL_GENE</t>
+          <t>AL_FECH_NACI</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E216">
@@ -12016,14 +12021,14 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>AL_GENE</t>
+          <t>AL_FECH_NACI</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AL_GRUP_SANG</t>
+          <t>AL_GENE</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12046,14 +12051,14 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>AL_GRUP_SANG</t>
+          <t>AL_GENE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>AL_INDI_CONDE</t>
+          <t>AL_GRUP_SANG</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12076,14 +12081,14 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>AL_INDI_CONDE</t>
+          <t>AL_GRUP_SANG</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_MADRE</t>
+          <t>AL_INDI_CONDE</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -12106,14 +12111,14 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>AL_MADR_ID</t>
+          <t>AL_INDI_CONDE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>NOMBRE_MADRE</t>
+          <t>NRO_DOCUMENTO_MADRE</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -12136,29 +12141,29 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>AL_MADR_NOMB</t>
+          <t>AL_MADR_ID</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AL_NOMB_JARD</t>
+          <t>NOMBRE_MADRE</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E221">
@@ -12166,29 +12171,29 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>AL_NOMB_JARD</t>
+          <t>AL_MADR_NOMB</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_PADRE</t>
+          <t>AL_NOMB_JARD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E222">
@@ -12196,14 +12201,14 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>AL_PADR_ID</t>
+          <t>AL_NOMB_JARD</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>NOMBRE_PADRE</t>
+          <t>NRO_DOCUMENTO_PADRE</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -12226,14 +12231,14 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>AL_PADR_NOMB</t>
+          <t>AL_PADR_ID</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AL_TALE</t>
+          <t>NOMBRE_PADRE</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -12256,14 +12261,14 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>AL_TALE</t>
+          <t>AL_PADR_NOMB</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>APEL1 ACUD</t>
+          <t>AL_TALE</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12284,16 +12289,16 @@
       <c r="E225">
         <v>3.03030303030303</v>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Apel1 Acud</t>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>AL_TALE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>APEL2 ACUD</t>
+          <t>APEL1 ACUD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12316,14 +12321,14 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Apel2 Acud</t>
+          <t>Apel1 Acud</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>APEL2 ACUD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -12346,14 +12351,14 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>Apel2 Acud</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AR_CODI_ID</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -12374,16 +12379,16 @@
       <c r="E228">
         <v>3.03030303030303</v>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>AR_CODI_ID</t>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ARS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AÑO INFO</t>
+          <t>AR_CODI_ID</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -12404,16 +12409,16 @@
       <c r="E229">
         <v>3.03030303030303</v>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>año info</t>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>AR_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AÑO_INF</t>
+          <t>AÑO INFO</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12434,16 +12439,16 @@
       <c r="E230">
         <v>3.03030303030303</v>
       </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>año_inf</t>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>año info</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BARRIO SEDE</t>
+          <t>AÑO_INF</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12464,16 +12469,16 @@
       <c r="E231">
         <v>3.03030303030303</v>
       </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>BARRIO SEDE</t>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>año_inf</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BARRIO...10</t>
+          <t>BARRIO SEDE</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12494,16 +12499,16 @@
       <c r="E232">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA232" t="inlineStr">
-        <is>
-          <t>barrio...10</t>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>BARRIO SEDE</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BARRIO...23</t>
+          <t>BARRIO...10</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -12526,14 +12531,14 @@
       </c>
       <c r="AA233" t="inlineStr">
         <is>
-          <t>barrio...23</t>
+          <t>barrio...10</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BARRIO...37</t>
+          <t>BARRIO...23</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -12556,74 +12561,74 @@
       </c>
       <c r="AA234" t="inlineStr">
         <is>
-          <t>barrio...37</t>
+          <t>barrio...23</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BASE</t>
+          <t>BARRIO...37</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E235">
         <v>3.03030303030303</v>
       </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>base</t>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>barrio...37</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BENEF_HEROES_NACION</t>
+          <t>BASE</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E236">
         <v>3.03030303030303</v>
       </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>benef_heroes_nacion</t>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>base</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BENEF_VETER_FUERZ_PUB</t>
+          <t>BENEF_HEROES_NACION</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12646,44 +12651,44 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>benef_veter_fuerz_pub</t>
+          <t>benef_heroes_nacion</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>BENEF_VETER_FUERZ_PUB</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E238">
         <v>3.03030303030303</v>
       </c>
-      <c r="U238" t="inlineStr">
-        <is>
-          <t>bp</t>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>benef_veter_fuerz_pub</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -12706,44 +12711,44 @@
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>bs</t>
+          <t>bp</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BUENO</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E240">
         <v>3.03030303030303</v>
       </c>
-      <c r="V240" t="inlineStr">
-        <is>
-          <t>BUENO</t>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>bs</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>BUENO</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12764,16 +12769,16 @@
       <c r="E241">
         <v>3.03030303030303</v>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>C</t>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>BUENO</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -12796,14 +12801,14 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CAPAC_EXCEPC</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -12824,16 +12829,16 @@
       <c r="E243">
         <v>3.03030303030303</v>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>capac_excepc</t>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>C1</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CAPEXCEP</t>
+          <t>CAPAC_EXCEPC</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -12854,76 +12859,76 @@
       <c r="E244">
         <v>3.03030303030303</v>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>CapExcep</t>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>capac_excepc</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CAR_ID</t>
+          <t>CAPEXCEP</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E245">
         <v>3.03030303030303</v>
       </c>
-      <c r="V245" t="inlineStr">
-        <is>
-          <t>CAR_ID</t>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>CapExcep</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CBML</t>
+          <t>CAR_ID</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E246">
         <v>3.03030303030303</v>
       </c>
-      <c r="X246" t="inlineStr">
-        <is>
-          <t>CBML</t>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>CAR_ID</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CBML...20</t>
+          <t>CBML</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -12944,16 +12949,16 @@
       <c r="E247">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA247" t="inlineStr">
-        <is>
-          <t>CBML...20</t>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>CBML</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CBML...34</t>
+          <t>CBML...20</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -12976,14 +12981,14 @@
       </c>
       <c r="AA248" t="inlineStr">
         <is>
-          <t>CBML...34</t>
+          <t>CBML...20</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CBML...7</t>
+          <t>CBML...34</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -13006,14 +13011,14 @@
       </c>
       <c r="AA249" t="inlineStr">
         <is>
-          <t>CBML...7</t>
+          <t>CBML...34</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CERTIFN</t>
+          <t>CBML...7</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -13034,16 +13039,16 @@
       <c r="E250">
         <v>3.03030303030303</v>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>CertifN</t>
+      <c r="AA250" t="inlineStr">
+        <is>
+          <t>CBML...7</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CLAVE 1: NOMBRE 1+NOMBRE2+APRELLIDO1+APELLIDO2+DOCUMENTO</t>
+          <t>CERTIFN</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -13064,16 +13069,16 @@
       <c r="E251">
         <v>3.03030303030303</v>
       </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>CLAVE 1: NOMBRE 1+NOMBRE2+APRELLIDO1+APELLIDO2+DOCUMENTO</t>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>CertifN</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CLAVE 2: CONSECUTIVO+SEDE</t>
+          <t>CLAVE 1: NOMBRE 1+NOMBRE2+APRELLIDO1+APELLIDO2+DOCUMENTO</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13096,14 +13101,14 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>Clave 2: consecutivo+sede</t>
+          <t>CLAVE 1: NOMBRE 1+NOMBRE2+APRELLIDO1+APELLIDO2+DOCUMENTO</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>COBERTURA CONTRATADA</t>
+          <t>CLAVE 2: CONSECUTIVO+SEDE</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13124,46 +13129,46 @@
       <c r="E253">
         <v>3.03030303030303</v>
       </c>
-      <c r="AF253" t="inlineStr">
-        <is>
-          <t>COBERTURA CONTRATADA</t>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Clave 2: consecutivo+sede</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>COBERTURA CONTRATADA</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E254">
         <v>3.03030303030303</v>
       </c>
-      <c r="W254" t="inlineStr">
-        <is>
-          <t>Cod</t>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>COBERTURA CONTRATADA</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CODCOMUNA</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13184,16 +13189,16 @@
       <c r="E255">
         <v>3.03030303030303</v>
       </c>
-      <c r="AB255" t="inlineStr">
-        <is>
-          <t>CodComuna</t>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>Cod</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CODGRADO</t>
+          <t>CODCOMUNA</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13214,16 +13219,16 @@
       <c r="E256">
         <v>3.03030303030303</v>
       </c>
-      <c r="V256" t="inlineStr">
-        <is>
-          <t>CodGrado</t>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>CodComuna</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CODIGO COMUNA XY</t>
+          <t>CODGRADO</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13246,104 +13251,104 @@
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>Codigo Comuna XY</t>
+          <t>CodGrado</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CODIGO_ANTERIOR</t>
+          <t>CODIGO COMUNA XY</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E258">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q258" t="inlineStr">
-        <is>
-          <t>CODIGO_ANTERIOR</t>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>Codigo Comuna XY</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CODIGO_INTERNADO</t>
+          <t>CODIGO_ANTERIOR</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E259">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y259" t="inlineStr">
-        <is>
-          <t>CODIGO_INTERNADO</t>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>CODIGO_ANTERIOR</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CODIGO_METODOLOGIA</t>
+          <t>CODIGO_INTERNADO</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E260">
         <v>3.03030303030303</v>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>CODIGO_METODOLOGIA</t>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>CODIGO_INTERNADO</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CODIGO_RESGUARDO</t>
+          <t>CODIGO_METODOLOGIA</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -13366,44 +13371,44 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>CODIGO_RESGUARDO</t>
+          <t>CODIGO_METODOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CODIGO_SED_05</t>
+          <t>CODIGO_RESGUARDO</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E262">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH262" t="inlineStr">
-        <is>
-          <t>CODIGO_SED_05</t>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>CODIGO_RESGUARDO</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CODIGO_SED_06</t>
+          <t>CODIGO_SED_05</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -13426,14 +13431,14 @@
       </c>
       <c r="AH263" t="inlineStr">
         <is>
-          <t>CODIGO_SED_06</t>
+          <t>CODIGO_SED_05</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CODIGO_SED_07</t>
+          <t>CODIGO_SED_06</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -13456,14 +13461,14 @@
       </c>
       <c r="AH264" t="inlineStr">
         <is>
-          <t>CODIGO_SED_07</t>
+          <t>CODIGO_SED_06</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CODIGO_SED_08</t>
+          <t>CODIGO_SED_07</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -13486,14 +13491,14 @@
       </c>
       <c r="AH265" t="inlineStr">
         <is>
-          <t>CODIGO_SED_08</t>
+          <t>CODIGO_SED_07</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CODIGO_SED_09</t>
+          <t>CODIGO_SED_08</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -13516,14 +13521,14 @@
       </c>
       <c r="AH266" t="inlineStr">
         <is>
-          <t>CODIGO_SED_09</t>
+          <t>CODIGO_SED_08</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CODIGO_SED_10</t>
+          <t>CODIGO_SED_09</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -13546,14 +13551,14 @@
       </c>
       <c r="AH267" t="inlineStr">
         <is>
-          <t>CODIGO_SED_10</t>
+          <t>CODIGO_SED_09</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CODIGO_SED_11</t>
+          <t>CODIGO_SED_10</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -13576,14 +13581,14 @@
       </c>
       <c r="AH268" t="inlineStr">
         <is>
-          <t>CODIGO_SED_11</t>
+          <t>CODIGO_SED_10</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CODIGO_SED_4</t>
+          <t>CODIGO_SED_11</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -13606,14 +13611,14 @@
       </c>
       <c r="AH269" t="inlineStr">
         <is>
-          <t>CODIGO_SED_4</t>
+          <t>CODIGO_SED_11</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CODIGO_VALORACION_1</t>
+          <t>CODIGO_SED_4</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13634,16 +13639,16 @@
       <c r="E270">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y270" t="inlineStr">
-        <is>
-          <t>CODIGO_VALORACION_1</t>
+      <c r="AH270" t="inlineStr">
+        <is>
+          <t>CODIGO_SED_4</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CODIGO_VALORACION_2</t>
+          <t>CODIGO_VALORACION_1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13666,44 +13671,44 @@
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>CODIGO_VALORACION_2</t>
+          <t>CODIGO_VALORACION_1</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>COD_ALUM_FINAL_AÑO</t>
+          <t>CODIGO_VALORACION_2</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E272">
         <v>3.03030303030303</v>
       </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>cod_alum_final_año</t>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>CODIGO_VALORACION_2</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>COD_DANE_SEDE</t>
+          <t>COD_ALUM_FINAL_AÑO</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -13724,16 +13729,16 @@
       <c r="E273">
         <v>3.03030303030303</v>
       </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>cod_dane_sede</t>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>cod_alum_final_año</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>COD_MPIO</t>
+          <t>COD_DANE_SEDE</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -13754,16 +13759,16 @@
       <c r="E274">
         <v>3.03030303030303</v>
       </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>cod_mpio</t>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>cod_dane_sede</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>COD_MUN1</t>
+          <t>COD_MPIO</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -13784,121 +13789,121 @@
       <c r="E275">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q275" t="inlineStr">
-        <is>
-          <t>COD_MUN1</t>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>cod_mpio</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>COMUNA ( IMPUTADA CON DIRECTORIO)</t>
+          <t>COD_MUN1</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E276">
         <v>3.03030303030303</v>
       </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>comuna ( Imputada con Directorio)</t>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>COD_MUN1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>COMUNA ALUMNO</t>
+          <t>COMUNA ( IMPUTADA CON DIRECTORIO)</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E277">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH277" t="inlineStr">
-        <is>
-          <t>COMUNA ALUMNO</t>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>comuna ( Imputada con Directorio)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>COMUNA ESTUDIANTE</t>
+          <t>COMUNA ALUMNO</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E278">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y278" t="inlineStr">
-        <is>
-          <t>Comuna Estudiante</t>
+      <c r="AH278" t="inlineStr">
+        <is>
+          <t>COMUNA ALUMNO</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>COMUNA ESTUDIANTE IMPUTADA CON SEDE EDUCATIVA</t>
+          <t>COMUNA ESTUDIANTE</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E279">
@@ -13906,14 +13911,14 @@
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>Comuna Estudiante Imputada con Sede educativa</t>
+          <t>Comuna Estudiante</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>COMUNA ESTUDIANTE XY + ESTABLECIMIENTO</t>
+          <t>COMUNA ESTUDIANTE IMPUTADA CON SEDE EDUCATIVA</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -13934,16 +13939,16 @@
       <c r="E280">
         <v>3.03030303030303</v>
       </c>
-      <c r="V280" t="inlineStr">
-        <is>
-          <t>Comuna Estudiante XY + Establecimiento</t>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>Comuna Estudiante Imputada con Sede educativa</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>COMUNA IE</t>
+          <t>COMUNA ESTUDIANTE XY + ESTABLECIMIENTO</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -13964,46 +13969,46 @@
       <c r="E281">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH281" t="inlineStr">
-        <is>
-          <t>COMUNA IE</t>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>Comuna Estudiante XY + Establecimiento</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>COMUNA XY</t>
+          <t>COMUNA IE</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E282">
         <v>3.03030303030303</v>
       </c>
-      <c r="V282" t="inlineStr">
-        <is>
-          <t>Comuna XY</t>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t>COMUNA IE</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>COMUNA...22</t>
+          <t>COMUNA XY</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -14024,16 +14029,16 @@
       <c r="E283">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA283" t="inlineStr">
-        <is>
-          <t>comuna...22</t>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>Comuna XY</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>COMUNA...36</t>
+          <t>COMUNA...22</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -14056,14 +14061,14 @@
       </c>
       <c r="AA284" t="inlineStr">
         <is>
-          <t>comuna...36</t>
+          <t>comuna...22</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>COMUNA...9</t>
+          <t>COMUNA...36</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -14086,134 +14091,134 @@
       </c>
       <c r="AA285" t="inlineStr">
         <is>
-          <t>comuna...9</t>
+          <t>comuna...36</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>COMUNASEDE</t>
+          <t>COMUNA...9</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E286">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y286" t="inlineStr">
-        <is>
-          <t>ComunaSede</t>
+      <c r="AA286" t="inlineStr">
+        <is>
+          <t>comuna...9</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CONPES_POB_ATENDIDA</t>
+          <t>COMUNASEDE</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E287">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q287" t="inlineStr">
-        <is>
-          <t>CONPES_POB_ATENDIDA</t>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>ComunaSede</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CONSECUTIVO SEDE</t>
+          <t>CONPES_POB_ATENDIDA</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E288">
         <v>3.03030303030303</v>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>CONSECUTIVO SEDE</t>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>CONPES_POB_ATENDIDA</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CON_ALUM_AÑO_ANT</t>
+          <t>CONSECUTIVO SEDE</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E289">
         <v>3.03030303030303</v>
       </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>con_alum_año_ant</t>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>CONSECUTIVO SEDE</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CORREO ELECTRONICO</t>
+          <t>CON_ALUM_AÑO_ANT</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -14234,46 +14239,46 @@
       <c r="E290">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z290" t="inlineStr">
-        <is>
-          <t>Correo Electronico</t>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>con_alum_año_ant</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CORTE</t>
+          <t>CORREO ELECTRONICO</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E291">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y291" t="inlineStr">
-        <is>
-          <t>Corte</t>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>Correo Electronico</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CORTE EDAD</t>
+          <t>CORTE</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -14294,46 +14299,46 @@
       <c r="E292">
         <v>3.03030303030303</v>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>corte edad</t>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>Corte</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CUENTA DE NRO_DOCUMENTO</t>
+          <t>CORTE EDAD</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E293">
         <v>3.03030303030303</v>
       </c>
-      <c r="AJ293" t="inlineStr">
-        <is>
-          <t>Cuenta de NRO_DOCUMENTO</t>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>corte edad</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>C_DPTO</t>
+          <t>CUENTA DE NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -14354,16 +14359,16 @@
       <c r="E294">
         <v>3.03030303030303</v>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>C_Dpto</t>
+      <c r="AJ294" t="inlineStr">
+        <is>
+          <t>Cuenta de NRO_DOCUMENTO</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>C_MCPIO</t>
+          <t>C_DPTO</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -14386,29 +14391,29 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>C_Mcpio</t>
+          <t>C_Dpto</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>C_SEDE</t>
+          <t>C_MCPIO</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E296">
@@ -14416,14 +14421,14 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>C_Sede</t>
+          <t>C_Mcpio</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CÓDIGO COMUNA ESTUDIANTE</t>
+          <t>C_SEDE</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -14444,16 +14449,16 @@
       <c r="E297">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y297" t="inlineStr">
-        <is>
-          <t>Código Comuna Estudiante</t>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>C_Sede</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DANE</t>
+          <t>CÓDIGO COMUNA ESTUDIANTE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -14474,16 +14479,16 @@
       <c r="E298">
         <v>3.03030303030303</v>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>DANE</t>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>Código Comuna Estudiante</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DANE ANTIGUO</t>
+          <t>DANE</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -14504,61 +14509,61 @@
       <c r="E299">
         <v>3.03030303030303</v>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>Dane antiguo</t>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>DANE</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DANE_ANTIGUO</t>
+          <t>DANE ANTIGUO</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E300">
         <v>3.03030303030303</v>
       </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>dane_antiguo</t>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Dane antiguo</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DANE_IE...3</t>
+          <t>DANE_ANTIGUO</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E301">
@@ -14566,14 +14571,14 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>dane_ie...3</t>
+          <t>dane_antiguo</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>DANE_IE...9</t>
+          <t>DANE_IE...3</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -14596,59 +14601,59 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>dane_ie...9</t>
+          <t>dane_ie...3</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DD_CODI_EXPU</t>
+          <t>DANE_IE...9</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E303">
         <v>3.03030303030303</v>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>DD_CODI_EXPU</t>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>dane_ie...9</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DD_CODI_ID_EXPU</t>
+          <t>DD_CODI_EXPU</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E304">
@@ -14656,29 +14661,29 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>DD_CODI_ID_EXPU</t>
+          <t>DD_CODI_EXPU</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>DD_CODI_ID_NACE</t>
+          <t>DD_CODI_ID_EXPU</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E305">
@@ -14686,14 +14691,14 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>DD_CODI_ID_NACE</t>
+          <t>DD_CODI_ID_EXPU</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DEPTO_NAC</t>
+          <t>DD_CODI_ID_NACE</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -14714,16 +14719,16 @@
       <c r="E306">
         <v>3.03030303030303</v>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Depto_Nac</t>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>DD_CODI_ID_NACE</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DESAY</t>
+          <t>DEPTO_NAC</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -14746,14 +14751,14 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Desay</t>
+          <t>Depto_Nac</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>DESAYPREP</t>
+          <t>DESAY</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -14776,14 +14781,14 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>DesayPrep</t>
+          <t>Desay</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>DEXP</t>
+          <t>DESAYPREP</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -14806,44 +14811,44 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Dexp</t>
+          <t>DesayPrep</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>DIF EDAD JUNIO...64</t>
+          <t>DEXP</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E310">
         <v>3.03030303030303</v>
       </c>
-      <c r="M310" t="inlineStr">
-        <is>
-          <t>Dif edad junio...64</t>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Dexp</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DIF EDAD JUNIO...66</t>
+          <t>DIF EDAD JUNIO...64</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -14866,14 +14871,14 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Dif edad junio...66</t>
+          <t>Dif edad junio...64</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DIF_EDAD MARZO...63</t>
+          <t>DIF EDAD JUNIO...66</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -14896,14 +14901,14 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Dif_edad marzo...63</t>
+          <t>Dif edad junio...66</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>DIF_EDAD MARZO...65</t>
+          <t>DIF_EDAD MARZO...63</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -14926,44 +14931,44 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Dif_edad marzo...65</t>
+          <t>Dif_edad marzo...63</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA</t>
+          <t>DIF_EDAD MARZO...65</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E314">
         <v>3.03030303030303</v>
       </c>
-      <c r="X314" t="inlineStr">
-        <is>
-          <t>Direccion encasillada</t>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Dif_edad marzo...65</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA...18</t>
+          <t>DIRACUD</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -14984,16 +14989,16 @@
       <c r="E315">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA315" t="inlineStr">
-        <is>
-          <t>Direccion encasillada...18</t>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>DirAcud</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA...32</t>
+          <t>DIRECCION ENCASILLADA</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -15014,16 +15019,16 @@
       <c r="E316">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA316" t="inlineStr">
-        <is>
-          <t>Direccion encasillada...32</t>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>Direccion encasillada</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA...5</t>
+          <t>DIRECCION ENCASILLADA...18</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -15046,14 +15051,14 @@
       </c>
       <c r="AA317" t="inlineStr">
         <is>
-          <t>Direccion encasillada...5</t>
+          <t>Direccion encasillada...18</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DIRECCION SEDE</t>
+          <t>DIRECCION ENCASILLADA...32</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -15074,16 +15079,16 @@
       <c r="E318">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z318" t="inlineStr">
-        <is>
-          <t>DIRECCION SEDE</t>
+      <c r="AA318" t="inlineStr">
+        <is>
+          <t>Direccion encasillada...32</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DIRECCIONHOMOLOGADA...15</t>
+          <t>DIRECCION ENCASILLADA...5</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -15106,14 +15111,14 @@
       </c>
       <c r="AA319" t="inlineStr">
         <is>
-          <t>DireccionHomologada...15</t>
+          <t>Direccion encasillada...5</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DIRECCIONHOMOLOGADA...2</t>
+          <t>DIRECCION SEDE</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -15134,16 +15139,16 @@
       <c r="E320">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA320" t="inlineStr">
-        <is>
-          <t>DireccionHomologada...2</t>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>DIRECCION SEDE</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DIRECCIONHOMOLOGADA...29</t>
+          <t>DIRECCIONHOMOLOGADA...15</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -15166,14 +15171,14 @@
       </c>
       <c r="AA321" t="inlineStr">
         <is>
-          <t>DireccionHomologada...29</t>
+          <t>DireccionHomologada...15</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DIRECCIONRESIDENCIA</t>
+          <t>DIRECCIONHOMOLOGADA...2</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -15194,16 +15199,16 @@
       <c r="E322">
         <v>3.03030303030303</v>
       </c>
-      <c r="X322" t="inlineStr">
-        <is>
-          <t>DIRECCIONRESIDENCIA</t>
+      <c r="AA322" t="inlineStr">
+        <is>
+          <t>DireccionHomologada...2</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA  HOMOLOGADA</t>
+          <t>DIRECCIONHOMOLOGADA...29</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -15224,16 +15229,16 @@
       <c r="E323">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y323" t="inlineStr">
-        <is>
-          <t>DIRECCION_RESIDENCIA  Homologada</t>
+      <c r="AA323" t="inlineStr">
+        <is>
+          <t>DireccionHomologada...29</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA...24</t>
+          <t>DIRECCIONRESIDENCIA</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15254,16 +15259,16 @@
       <c r="E324">
         <v>3.03030303030303</v>
       </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>DIRECCION_RESIDENCIA...24</t>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>DIRECCIONRESIDENCIA</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA...25</t>
+          <t>DIRECCION_RESIDENCIA  HOMOLOGADA</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -15284,16 +15289,16 @@
       <c r="E325">
         <v>3.03030303030303</v>
       </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>DIRECCION_RESIDENCIA...25</t>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>DIRECCION_RESIDENCIA  Homologada</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>DISCAP</t>
+          <t>DIRECCION_RESIDENCIA...24</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -15314,46 +15319,46 @@
       <c r="E326">
         <v>3.03030303030303</v>
       </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>Discap</t>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>DIRECCION_RESIDENCIA...24</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DISCAPACIDAD1</t>
+          <t>DIRECCION_RESIDENCIA...25</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E327">
         <v>3.03030303030303</v>
       </c>
-      <c r="AK327" t="inlineStr">
-        <is>
-          <t>DISCAPACIDAD1</t>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>DIRECCION_RESIDENCIA...25</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DM_CODI_EXPU</t>
+          <t>DISCAP</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -15374,46 +15379,46 @@
       <c r="E328">
         <v>3.03030303030303</v>
       </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>DM_CODI_EXPU</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Discap</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_EXPU</t>
+          <t>DISCAPACIDAD1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E329">
         <v>3.03030303030303</v>
       </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>DM_CODI_ID_EXPU</t>
+      <c r="AK329" t="inlineStr">
+        <is>
+          <t>DISCAPACIDAD1</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_NACE</t>
+          <t>DM_CODI_EXPU</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -15436,104 +15441,104 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_NACE</t>
+          <t>DM_CODI_EXPU</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DPTO_RES</t>
+          <t>DM_CODI_ID_EXPU</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E331">
         <v>3.03030303030303</v>
       </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>Dpto_res</t>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>DM_CODI_ID_EXPU</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>EDAD 2</t>
+          <t>DM_CODI_ID_NACE</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E332">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q332" t="inlineStr">
-        <is>
-          <t>EDAD 2</t>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>DM_CODI_ID_NACE</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>EDAD 31 MARZO</t>
+          <t>DPTO_RES</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E333">
         <v>3.03030303030303</v>
       </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>edad 31 marzo</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Dpto_res</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>EDAD A 31 DE MARZO</t>
+          <t>EDAD 2</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -15554,16 +15559,16 @@
       <c r="E334">
         <v>3.03030303030303</v>
       </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>edad a 31 de marzo</t>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>EDAD 2</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>EDAD A MARZO 31</t>
+          <t>EDAD 31 MARZO</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -15584,16 +15589,16 @@
       <c r="E335">
         <v>3.03030303030303</v>
       </c>
-      <c r="J335" t="inlineStr">
-        <is>
-          <t>edad a marzo 31</t>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>edad 31 marzo</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>EDAD CALCULADA A 31/03/2015</t>
+          <t>EDAD A 31 DE MARZO</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -15614,16 +15619,16 @@
       <c r="E336">
         <v>3.03030303030303</v>
       </c>
-      <c r="V336" t="inlineStr">
-        <is>
-          <t>Edad calculada a 31/03/2015</t>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>edad a 31 de marzo</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>EDAD CALCULADA AL CORTE</t>
+          <t>EDAD A MARZO 31</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -15644,16 +15649,16 @@
       <c r="E337">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y337" t="inlineStr">
-        <is>
-          <t>Edad Calculada al Corte</t>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>edad a marzo 31</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>EDAD IDEAL X GRADO</t>
+          <t>EDAD CALCULADA A 31/03/2015</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -15674,16 +15679,16 @@
       <c r="E338">
         <v>3.03030303030303</v>
       </c>
-      <c r="M338" t="inlineStr">
-        <is>
-          <t>Edad ideal x grado</t>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>Edad calculada a 31/03/2015</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>EDAD JAAM</t>
+          <t>EDAD CALCULADA AL CORTE</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -15704,16 +15709,16 @@
       <c r="E339">
         <v>3.03030303030303</v>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>edad JAAM</t>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>Edad Calculada al Corte</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>EDAD JUNIO</t>
+          <t>EDAD IDEAL X GRADO</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -15736,14 +15741,14 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>edad junio</t>
+          <t>Edad ideal x grado</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>EDAD JUNIO 30</t>
+          <t>EDAD JAAM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -15764,16 +15769,16 @@
       <c r="E341">
         <v>3.03030303030303</v>
       </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>Edad junio 30</t>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>edad JAAM</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>EDAD MARZO</t>
+          <t>EDAD JUNIO</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -15796,14 +15801,14 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>edad marzo</t>
+          <t>edad junio</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>EDAD MARZO 31</t>
+          <t>EDAD JUNIO 30</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -15826,14 +15831,14 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>edad marzo 31</t>
+          <t>Edad junio 30</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>EDAD MEN</t>
+          <t>EDAD MARZO</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -15854,16 +15859,16 @@
       <c r="E344">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y344" t="inlineStr">
-        <is>
-          <t>EDAD MEN</t>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>edad marzo</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>EDAD-MEN</t>
+          <t>EDAD MARZO 31</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -15884,76 +15889,76 @@
       <c r="E345">
         <v>3.03030303030303</v>
       </c>
-      <c r="V345" t="inlineStr">
-        <is>
-          <t>EDAD-MEN</t>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>edad marzo 31</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>EI_CODI_ID</t>
+          <t>EDAD MEN</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E346">
         <v>3.03030303030303</v>
       </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>EI_CODI_ID</t>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>EDAD MEN</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>EMBARAZOPRE</t>
+          <t>EDAD-MEN</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E347">
         <v>3.03030303030303</v>
       </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>EmbarazoPre</t>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>EDAD-MEN</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>EI_CODI_ID</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -15974,16 +15979,16 @@
       <c r="E348">
         <v>3.03030303030303</v>
       </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>EPS</t>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>EI_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>EP_CODI_ID</t>
+          <t>EMBARAZOPRE</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -16004,16 +16009,16 @@
       <c r="E349">
         <v>3.03030303030303</v>
       </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>EP_CODI_ID</t>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>EmbarazoPre</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ESTABLECIMIENTO DUE</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -16034,16 +16039,16 @@
       <c r="E350">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y350" t="inlineStr">
-        <is>
-          <t>Establecimiento DUE</t>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>EPS</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ESTABLECIMIENTO EDUCATIVO</t>
+          <t>EP_CODI_ID</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -16064,16 +16069,16 @@
       <c r="E351">
         <v>3.03030303030303</v>
       </c>
-      <c r="V351" t="inlineStr">
-        <is>
-          <t>Establecimiento Educativo</t>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>EP_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ESTADOF</t>
+          <t>ESTABLECIMIENTO DUE</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -16094,16 +16099,16 @@
       <c r="E352">
         <v>3.03030303030303</v>
       </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>ESTADOF</t>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>Establecimiento DUE</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ESTADO_DEFINTIVO</t>
+          <t>ESTABLECIMIENTO EDUCATIVO</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -16124,16 +16129,16 @@
       <c r="E353">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q353" t="inlineStr">
-        <is>
-          <t>ESTADO_DEFINTIVO</t>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>Establecimiento Educativo</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ESTADO_INTERMEDIO</t>
+          <t>ESTADOF</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -16154,16 +16159,16 @@
       <c r="E354">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q354" t="inlineStr">
-        <is>
-          <t>Estado_Intermedio</t>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>ESTADOF</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ESTRATO ESTUD</t>
+          <t>ESTADO_DEFINTIVO</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -16184,46 +16189,46 @@
       <c r="E355">
         <v>3.03030303030303</v>
       </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>estrato estud</t>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>ESTADO_DEFINTIVO</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ETNIA1</t>
+          <t>ESTADO_INTERMEDIO</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E356">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y356" t="inlineStr">
-        <is>
-          <t>ETNIA1</t>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>Estado_Intermedio</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>EXPED_DCTO_DPTO</t>
+          <t>ESTRATO ESTUD</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -16246,44 +16251,44 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>exped_dcto_dpto</t>
+          <t>estrato estud</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>EXPED_DCTO_MPIO</t>
+          <t>ETNIA1</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E358">
         <v>3.03030303030303</v>
       </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>exped_dcto_mpio</t>
+      <c r="Y358" t="inlineStr">
+        <is>
+          <t>ETNIA1</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>EXPR1045</t>
+          <t>EXPED_DCTO_DPTO</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -16304,16 +16309,16 @@
       <c r="E359">
         <v>3.03030303030303</v>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>Expr1045</t>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>exped_dcto_dpto</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EXP_DPTO</t>
+          <t>EXPED_DCTO_MPIO</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -16334,256 +16339,256 @@
       <c r="E360">
         <v>3.03030303030303</v>
       </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>exp_dpto</t>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>exped_dcto_mpio</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>EXTRAEDAD JUNIO</t>
+          <t>EXPR1045</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E361">
         <v>3.03030303030303</v>
       </c>
-      <c r="M361" t="inlineStr">
-        <is>
-          <t>extraedad junio</t>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Expr1045</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>EXTRAEDAD MARZO</t>
+          <t>EXP_DPTO</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E362">
         <v>3.03030303030303</v>
       </c>
-      <c r="M362" t="inlineStr">
-        <is>
-          <t>extraedad marzo</t>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>exp_dpto</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>E_VACUNA</t>
+          <t>EXTRAEDAD JUNIO</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E363">
         <v>3.03030303030303</v>
       </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>E_Vacuna</t>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>extraedad junio</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>FECHA MARZO 31</t>
+          <t>EXTRAEDAD MARZO</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E364">
         <v>3.03030303030303</v>
       </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>fecha marzo 31</t>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>extraedad marzo</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FECHA NACIM</t>
+          <t>E_VACUNA</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E365">
         <v>3.03030303030303</v>
       </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>fecha nacim</t>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>E_Vacuna</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>FECHA_ANEXO</t>
+          <t>FECHA MARZO 31</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E366">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y366" t="inlineStr">
-        <is>
-          <t>fecha_anexo</t>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>fecha marzo 31</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>FECHA_CORTE1</t>
+          <t>FECHA NACIM</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E367">
         <v>3.03030303030303</v>
       </c>
-      <c r="M367" t="inlineStr">
-        <is>
-          <t>fecha_corte1</t>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>fecha nacim</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>FECHA_CORTE2</t>
+          <t>FECHA_ANEXO</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E368">
         <v>3.03030303030303</v>
       </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>fecha_corte2</t>
+      <c r="Y368" t="inlineStr">
+        <is>
+          <t>fecha_anexo</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENT</t>
+          <t>FECHA_CORTE1</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16606,254 +16611,254 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>fecha_nacimient</t>
+          <t>fecha_corte1</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO (EN OTRO FORMATO)</t>
+          <t>FECHA_CORTE2</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E370">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y370" t="inlineStr">
-        <is>
-          <t>FECHA_NACIMIENTO (En otro Formato)</t>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>fecha_corte2</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO2</t>
+          <t>FECHA_NACIMIENT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E371">
         <v>3.03030303030303</v>
       </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>FECHA_NACIMIENTO2</t>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>fecha_nacimient</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FF_CODI_ID</t>
+          <t>FECHA_NACIMIENTO (EN OTRO FORMATO)</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E372">
         <v>3.03030303030303</v>
       </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>FF_CODI_ID</t>
+      <c r="Y372" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO (En otro Formato)</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>FUENTE_RECURSOS</t>
+          <t>FECHA_NACIMIENTO2</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E373">
         <v>3.03030303030303</v>
       </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>fuente_recursos</t>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO2</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>F_NAC</t>
+          <t>FF_CODI_ID</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E374">
         <v>3.03030303030303</v>
       </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>F_Nac</t>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>FF_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GRADO 2</t>
+          <t>FUENTE_RECURSOS</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E375">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q375" t="inlineStr">
-        <is>
-          <t>GRADO 2</t>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>fuente_recursos</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GRATUIDAD</t>
+          <t>F_NAC</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E376">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q376" t="inlineStr">
-        <is>
-          <t>GRATUIDAD</t>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>F_Nac</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>GRUOP</t>
+          <t>GRADO 2</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E377">
         <v>3.03030303030303</v>
       </c>
-      <c r="I377" t="inlineStr">
-        <is>
-          <t>gruop</t>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>GRADO 2</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GRUPO_CURSO</t>
+          <t>GRATUIDAD</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -16874,16 +16879,16 @@
       <c r="E378">
         <v>3.03030303030303</v>
       </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>grupo_curso</t>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>GRATUIDAD</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>HIJO_DEPEND_CAB_FLIA</t>
+          <t>GRUOP</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -16904,16 +16909,16 @@
       <c r="E379">
         <v>3.03030303030303</v>
       </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>hijo_depend_cab_flia</t>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>gruop</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ID+DANE</t>
+          <t>GRUPO_CURSO</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -16934,16 +16939,16 @@
       <c r="E380">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH380" t="inlineStr">
-        <is>
-          <t>ID+DANE</t>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>grupo_curso</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ID...17</t>
+          <t>HIJO_DEPEND_CAB_FLIA</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -16964,16 +16969,16 @@
       <c r="E381">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA381" t="inlineStr">
-        <is>
-          <t>Id...17</t>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>hijo_depend_cab_flia</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ID...31</t>
+          <t>ID+DANE</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -16994,16 +16999,16 @@
       <c r="E382">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA382" t="inlineStr">
-        <is>
-          <t>Id...31</t>
+      <c r="AH382" t="inlineStr">
+        <is>
+          <t>ID+DANE</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ID...4</t>
+          <t>ID...17</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -17026,134 +17031,134 @@
       </c>
       <c r="AA383" t="inlineStr">
         <is>
-          <t>Id...4</t>
+          <t>Id...17</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>INDICATIVO TEXTO...1</t>
+          <t>ID...31</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E384">
         <v>3.03030303030303</v>
       </c>
-      <c r="X384" t="inlineStr">
-        <is>
-          <t>indicativo TEXTO...1</t>
+      <c r="AA384" t="inlineStr">
+        <is>
+          <t>Id...31</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>INDICATIVO TEXTO...17</t>
+          <t>ID...4</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E385">
         <v>3.03030303030303</v>
       </c>
-      <c r="X385" t="inlineStr">
-        <is>
-          <t>indicativo TEXTO...17</t>
+      <c r="AA385" t="inlineStr">
+        <is>
+          <t>Id...4</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>INSTBIEN</t>
+          <t>INDICATIVO TEXTO...1</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E386">
         <v>3.03030303030303</v>
       </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>InstBien</t>
+      <c r="X386" t="inlineStr">
+        <is>
+          <t>indicativo TEXTO...1</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>INSTITUCIONES EDUCATIVA</t>
+          <t>INDICATIVO TEXTO...17</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E387">
         <v>3.03030303030303</v>
       </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>INSTITUCIONES EDUCATIVA</t>
+      <c r="X387" t="inlineStr">
+        <is>
+          <t>indicativo TEXTO...17</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>INSTITUCIONES EDUCATIVAS</t>
+          <t>INSTBIEN</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -17174,16 +17179,16 @@
       <c r="E388">
         <v>3.03030303030303</v>
       </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>INSTITUCIONES EDUCATIVAS</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>InstBien</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>INSTITUCIÓN EDUCATIVO</t>
+          <t>INSTITUCIONES EDUCATIVA</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -17204,91 +17209,91 @@
       <c r="E389">
         <v>3.03030303030303</v>
       </c>
-      <c r="M389" t="inlineStr">
-        <is>
-          <t>INSTITUCIÓN EDUCATIVO</t>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>INSTITUCIONES EDUCATIVA</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>INST_BIENES_ORIGEN</t>
+          <t>INSTITUCIONES EDUCATIVAS</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E390">
         <v>3.03030303030303</v>
       </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>inst_bienes_origen</t>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>INSTITUCIONES EDUCATIVAS</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>IN_CODI_ID</t>
+          <t>INSTITUCIÓN EDUCATIVO</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E391">
         <v>3.03030303030303</v>
       </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>IN_CODI_ID</t>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>INSTITUCIÓN EDUCATIVO</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>JUNIO 30 DE 2009</t>
+          <t>INST_BIENES_ORIGEN</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E392">
@@ -17296,14 +17301,14 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>junio 30 de 2009</t>
+          <t>inst_bienes_origen</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>JUNIO3006</t>
+          <t>IN_CODI_ID</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -17324,76 +17329,76 @@
       <c r="E393">
         <v>3.03030303030303</v>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>junio3006</t>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>IN_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>JUNIO3007</t>
+          <t>JUNIO 30 DE 2009</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E394">
         <v>3.03030303030303</v>
       </c>
-      <c r="I394" t="inlineStr">
-        <is>
-          <t>junio3007</t>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>junio 30 de 2009</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JUNIO302004</t>
+          <t>JUNIO3006</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E395">
         <v>3.03030303030303</v>
       </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>junio302004</t>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>junio3006</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>JUNIO302005</t>
+          <t>JUNIO3007</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -17414,76 +17419,76 @@
       <c r="E396">
         <v>3.03030303030303</v>
       </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>junio302005</t>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>junio3007</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LC_CODI_ID</t>
+          <t>JUNIO302004</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E397">
         <v>3.03030303030303</v>
       </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>LC_CODI_ID</t>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>junio302004</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>LEXPDACUD</t>
+          <t>JUNIO302005</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E398">
         <v>3.03030303030303</v>
       </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>LexpDacud</t>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>junio302005</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>LEXPMACUD</t>
+          <t>LC_CODI_ID</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -17504,16 +17509,16 @@
       <c r="E399">
         <v>3.03030303030303</v>
       </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>LexpMacud</t>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>LC_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>LUGAR_NAC_DPTO</t>
+          <t>LEXPDACUD</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -17534,16 +17539,16 @@
       <c r="E400">
         <v>3.03030303030303</v>
       </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>lugar_nac_dpto</t>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>LexpDacud</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>LUGAR_NAC_MPIO</t>
+          <t>LEXPMACUD</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -17564,16 +17569,16 @@
       <c r="E401">
         <v>3.03030303030303</v>
       </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>lugar_nac_mpio</t>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>LexpMacud</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MALTRATO</t>
+          <t>LUGAR_NAC_DPTO</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -17594,106 +17599,106 @@
       <c r="E402">
         <v>3.03030303030303</v>
       </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>Maltrato</t>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>lugar_nac_dpto</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MARZO3106</t>
+          <t>LUGAR_NAC_MPIO</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E403">
         <v>3.03030303030303</v>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>marzo3106</t>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>lugar_nac_mpio</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MARZO3107</t>
+          <t>MALTRATO</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E404">
         <v>3.03030303030303</v>
       </c>
-      <c r="I404" t="inlineStr">
-        <is>
-          <t>marzo3107</t>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Maltrato</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MARZO312004</t>
+          <t>MARZO3106</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E405">
         <v>3.03030303030303</v>
       </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>marzo312004</t>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>marzo3106</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MARZO312005</t>
+          <t>MARZO3107</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -17714,76 +17719,76 @@
       <c r="E406">
         <v>3.03030303030303</v>
       </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>marzo312005</t>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>marzo3107</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MATRICULA</t>
+          <t>MARZO312004</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E407">
         <v>3.03030303030303</v>
       </c>
-      <c r="X407" t="inlineStr">
-        <is>
-          <t>Matricula</t>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>marzo312004</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MATRICULA...19</t>
+          <t>MARZO312005</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E408">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA408" t="inlineStr">
-        <is>
-          <t>Matricula...19</t>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>marzo312005</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MATRICULA...33</t>
+          <t>MATRICULA</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -17804,16 +17809,16 @@
       <c r="E409">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA409" t="inlineStr">
-        <is>
-          <t>Matricula...33</t>
+      <c r="X409" t="inlineStr">
+        <is>
+          <t>Matricula</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MATRICULA...6</t>
+          <t>MATRICULA...19</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -17836,44 +17841,44 @@
       </c>
       <c r="AA410" t="inlineStr">
         <is>
-          <t>Matricula...6</t>
+          <t>Matricula...19</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MATRICULA_DEFINITIVA_SUM</t>
+          <t>MATRICULA...33</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E411">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y411" t="inlineStr">
-        <is>
-          <t>Matricula_Definitiva_Sum</t>
+      <c r="AA411" t="inlineStr">
+        <is>
+          <t>Matricula...33</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MATRÍCULA_DEFINITIVA</t>
+          <t>MATRICULA...6</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -17894,16 +17899,16 @@
       <c r="E412">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q412" t="inlineStr">
-        <is>
-          <t>Matrícula_Definitiva</t>
+      <c r="AA412" t="inlineStr">
+        <is>
+          <t>Matricula...6</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MES_ATENCION</t>
+          <t>MATRICULA_DEFINITIVA_SUM</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -17924,31 +17929,31 @@
       <c r="E413">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q413" t="inlineStr">
-        <is>
-          <t>mes_atencion</t>
+      <c r="Y413" t="inlineStr">
+        <is>
+          <t>Matricula_Definitiva_Sum</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MES_FINAL</t>
+          <t>MATRÍCULA_DEFINITIVA</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E414">
@@ -17956,74 +17961,74 @@
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>mes_final</t>
+          <t>Matrícula_Definitiva</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>METODOL</t>
+          <t>MES_ATENCION</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E415">
         <v>3.03030303030303</v>
       </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>Metodol</t>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>mes_atencion</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MEXP</t>
+          <t>MES_FINAL</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E416">
         <v>3.03030303030303</v>
       </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>Mexp</t>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>mes_final</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MOTIVO</t>
+          <t>METODOL</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -18044,16 +18049,16 @@
       <c r="E417">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y417" t="inlineStr">
-        <is>
-          <t>MOTIVO</t>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Metodol</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MPIO_EXP</t>
+          <t>MEXP</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -18076,14 +18081,14 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Mpio_exp</t>
+          <t>Mexp</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MPIO_NAC</t>
+          <t>MOTIVO</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -18104,16 +18109,16 @@
       <c r="E419">
         <v>3.03030303030303</v>
       </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>Mpio_Nac</t>
+      <c r="Y419" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MPIO_RES</t>
+          <t>MPIO_EXP</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -18136,14 +18141,14 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Mpio_res</t>
+          <t>Mpio_exp</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MUN_COD</t>
+          <t>MPIO_NAC</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -18164,16 +18169,16 @@
       <c r="E421">
         <v>3.03030303030303</v>
       </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>mun_cod</t>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Mpio_Nac</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>NAC_DPTO</t>
+          <t>MPIO_RES</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -18194,16 +18199,16 @@
       <c r="E422">
         <v>3.03030303030303</v>
       </c>
-      <c r="I422" t="inlineStr">
-        <is>
-          <t>nac_dpto</t>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Mpio_res</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>NOMBRE2_ACUDIENTE</t>
+          <t>MUN_COD</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -18224,16 +18229,16 @@
       <c r="E423">
         <v>3.03030303030303</v>
       </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>Nomb2 Acud</t>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>mun_cod</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>NOMBRE IE</t>
+          <t>NAC_DPTO</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -18254,226 +18259,226 @@
       <c r="E424">
         <v>3.03030303030303</v>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>Nombre IE</t>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>nac_dpto</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>NOMBREGRADO</t>
+          <t>NOMBRE2_ACUDIENTE</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E425">
         <v>3.03030303030303</v>
       </c>
-      <c r="N425" t="inlineStr">
-        <is>
-          <t>NombreGrado</t>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Nomb2 Acud</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>NRO.OFICIAL</t>
+          <t>NOMBRE IE</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E426">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z426" t="inlineStr">
-        <is>
-          <t>Nro.Oficial</t>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Nombre IE</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>NRODOCUMENTO</t>
+          <t>NOMBREGRADO</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E427">
         <v>3.03030303030303</v>
       </c>
-      <c r="X427" t="inlineStr">
-        <is>
-          <t>NRODOCUMENTO</t>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>NombreGrado</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_ACUDIENTE</t>
+          <t>NRO.OFICIAL</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E428">
         <v>3.03030303030303</v>
       </c>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>AL_CEDU_ACUD</t>
+      <c r="Z428" t="inlineStr">
+        <is>
+          <t>Nro.Oficial</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>NUCLEO SEDE</t>
+          <t>NRODOCUMENTO</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E429">
         <v>3.03030303030303</v>
       </c>
-      <c r="N429" t="inlineStr">
-        <is>
-          <t>NUCLEO SEDE</t>
+      <c r="X429" t="inlineStr">
+        <is>
+          <t>NRODOCUMENTO</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>NUEVO_IE</t>
+          <t>NUCLEO SEDE</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E430">
         <v>3.03030303030303</v>
       </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>nuevo_ie</t>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>NUCLEO SEDE</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>NUMERO</t>
+          <t>NUEVO_IE</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E431">
         <v>3.03030303030303</v>
       </c>
-      <c r="S431" t="inlineStr">
-        <is>
-          <t>Numero</t>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>nuevo_ie</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>NÚMERO</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -18494,16 +18499,16 @@
       <c r="E432">
         <v>3.03030303030303</v>
       </c>
-      <c r="M432" t="inlineStr">
-        <is>
-          <t>Número</t>
+      <c r="S432" t="inlineStr">
+        <is>
+          <t>Numero</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>NÚMERO</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -18524,16 +18529,16 @@
       <c r="E433">
         <v>3.03030303030303</v>
       </c>
-      <c r="N433" t="inlineStr">
-        <is>
-          <t>ord</t>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>Número</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORDEN...1</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -18554,16 +18559,16 @@
       <c r="E434">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA434" t="inlineStr">
-        <is>
-          <t>Orden...1</t>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>ord</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORDEN...14</t>
+          <t>ORDEN...1</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -18586,29 +18591,29 @@
       </c>
       <c r="AA435" t="inlineStr">
         <is>
-          <t>Orden...14</t>
+          <t>Orden...1</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORDEN...16</t>
+          <t>ORDEN...14</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E436">
@@ -18616,29 +18621,29 @@
       </c>
       <c r="AA436" t="inlineStr">
         <is>
-          <t>Orden...16</t>
+          <t>Orden...14</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORDEN...28</t>
+          <t>ORDEN...16</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E437">
@@ -18646,29 +18651,29 @@
       </c>
       <c r="AA437" t="inlineStr">
         <is>
-          <t>Orden...28</t>
+          <t>Orden...16</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORDEN...3</t>
+          <t>ORDEN...28</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E438">
@@ -18676,14 +18681,14 @@
       </c>
       <c r="AA438" t="inlineStr">
         <is>
-          <t>Orden...3</t>
+          <t>Orden...28</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORDEN...30</t>
+          <t>ORDEN...3</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -18706,14 +18711,14 @@
       </c>
       <c r="AA439" t="inlineStr">
         <is>
-          <t>Orden...30</t>
+          <t>Orden...3</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>PARENTE</t>
+          <t>ORDEN...30</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -18734,16 +18739,16 @@
       <c r="E440">
         <v>3.03030303030303</v>
       </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>Parente</t>
+      <c r="AA440" t="inlineStr">
+        <is>
+          <t>Orden...30</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>PC_CODI_ID</t>
+          <t>PARENTE</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -18764,16 +18769,16 @@
       <c r="E441">
         <v>3.03030303030303</v>
       </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>PC_CODI_ID</t>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Parente</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PI_CODI_ID</t>
+          <t>PC_CODI_ID</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -18796,74 +18801,74 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>PI_CODI_ID</t>
+          <t>PC_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>PI_CODI_ID</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E443">
         <v>3.03030303030303</v>
       </c>
-      <c r="U443" t="inlineStr">
-        <is>
-          <t>pj</t>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>PI_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>POB_VICT_ CONF</t>
+          <t>PJ</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E444">
         <v>3.03030303030303</v>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>POB_VICT_ CONF</t>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>pj</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PRES SERVICIO</t>
+          <t>POB_VICT_ CONF</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -18884,16 +18889,16 @@
       <c r="E445">
         <v>3.03030303030303</v>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>Pres servicio</t>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>POB_VICT_ CONF</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>PREST SERVICI</t>
+          <t>PRES SERVICIO</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -18914,16 +18919,16 @@
       <c r="E446">
         <v>3.03030303030303</v>
       </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>Prest Servici</t>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Pres servicio</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...21</t>
+          <t>PREST SERVICI</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -18944,16 +18949,16 @@
       <c r="E447">
         <v>3.03030303030303</v>
       </c>
-      <c r="M447" t="inlineStr">
-        <is>
-          <t>PRESTACIÓN DEL SERVICIO...21</t>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>Prest Servici</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...42</t>
+          <t>PRESTACIÓN DEL SERVICIO...21</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -18976,14 +18981,14 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...42</t>
+          <t>PRESTACIÓN DEL SERVICIO...21</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...77</t>
+          <t>PRESTACIÓN DEL SERVICIO...42</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -19004,16 +19009,16 @@
       <c r="E449">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y449" t="inlineStr">
-        <is>
-          <t>Prestación del Servicio...77</t>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>PRESTACIÓN DEL SERVICIO...42</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...86</t>
+          <t>PRESTACIÓN DEL SERVICIO...77</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -19036,14 +19041,14 @@
       </c>
       <c r="Y450" t="inlineStr">
         <is>
-          <t>Prestación del Servicio...86</t>
+          <t>Prestación del Servicio...77</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PROVSPV</t>
+          <t>PRESTACIÓN DEL SERVICIO...86</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -19064,16 +19069,16 @@
       <c r="E451">
         <v>3.03030303030303</v>
       </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>ProvSPv</t>
+      <c r="Y451" t="inlineStr">
+        <is>
+          <t>Prestación del Servicio...86</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PROV_OTRO_MPIO</t>
+          <t>PROVSPV</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -19094,16 +19099,16 @@
       <c r="E452">
         <v>3.03030303030303</v>
       </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>prov_otro_mpio</t>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>ProvSPv</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>PROV_OTRO_MUN</t>
+          <t>PROV_OTRO_MPIO</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -19124,16 +19129,16 @@
       <c r="E453">
         <v>3.03030303030303</v>
       </c>
-      <c r="I453" t="inlineStr">
-        <is>
-          <t>prov_otro_mun</t>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>prov_otro_mpio</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>PROV_SECTOR_PRIV</t>
+          <t>PROV_OTRO_MUN</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -19156,14 +19161,14 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>prov_sector_priv</t>
+          <t>prov_otro_mun</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PROV_SECT_PRIVADO</t>
+          <t>PROV_SECTOR_PRIV</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -19184,76 +19189,76 @@
       <c r="E455">
         <v>3.03030303030303</v>
       </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>prov_sect_privado</t>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>prov_sector_priv</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>PRUEBA PARA CRUCE 4751</t>
+          <t>PROV_SECT_PRIVADO</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E456">
         <v>3.03030303030303</v>
       </c>
-      <c r="M456" t="inlineStr">
-        <is>
-          <t>prueba para cruce 4751</t>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>prov_sect_privado</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PVICT_CONFLI</t>
+          <t>PRUEBA PARA CRUCE 4751</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E457">
         <v>3.03030303030303</v>
       </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>PvicT_confli</t>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>prueba para cruce 4751</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>PVOMPIO</t>
+          <t>PVICT_CONFLI</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -19276,74 +19281,74 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>PvOMpio</t>
+          <t>PvicT_confli</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>PVOMPIO</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E459">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q459" t="inlineStr">
-        <is>
-          <t>q</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>PvOMpio</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RANGO</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E460">
         <v>3.03030303030303</v>
       </c>
-      <c r="M460" t="inlineStr">
-        <is>
-          <t>Rango</t>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>q</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RECTOR</t>
+          <t>RANGO</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -19364,16 +19369,16 @@
       <c r="E461">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z461" t="inlineStr">
-        <is>
-          <t>Rector</t>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>Rango</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>REPITENT</t>
+          <t>RECTOR</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -19394,61 +19399,61 @@
       <c r="E462">
         <v>3.03030303030303</v>
       </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>Repitent</t>
+      <c r="Z462" t="inlineStr">
+        <is>
+          <t>Rector</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RES...32</t>
+          <t>REPITENT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E463">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y463" t="inlineStr">
-        <is>
-          <t>RES...32</t>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Repitent</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RES...56</t>
+          <t>RES...32</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E464">
@@ -19456,44 +19461,44 @@
       </c>
       <c r="Y464" t="inlineStr">
         <is>
-          <t>RES...56</t>
+          <t>RES...32</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RESGUARD</t>
+          <t>RES...56</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E465">
         <v>3.03030303030303</v>
       </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>Resguard</t>
+      <c r="Y465" t="inlineStr">
+        <is>
+          <t>RES...56</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RESGUARDO</t>
+          <t>RESGUARD</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -19514,16 +19519,16 @@
       <c r="E466">
         <v>3.03030303030303</v>
       </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>resguardo</t>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Resguard</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RESID_DPTO</t>
+          <t>RESGUARDO</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -19546,14 +19551,14 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>resid_dpto</t>
+          <t>resguardo</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RESID_MPIO</t>
+          <t>RESID_DPTO</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -19576,134 +19581,134 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>resid_mpio</t>
+          <t>resid_dpto</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RESPONSABILIDAD_PENAL</t>
+          <t>RESID_MPIO</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E469">
         <v>3.03030303030303</v>
       </c>
-      <c r="AC469" t="inlineStr">
-        <is>
-          <t>RESPONSABILIDAD_PENAL</t>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>resid_mpio</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RES_DPTO</t>
+          <t>RESPONSABILIDAD_PENAL</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E470">
         <v>3.03030303030303</v>
       </c>
-      <c r="I470" t="inlineStr">
-        <is>
-          <t>res_dpto</t>
+      <c r="AC470" t="inlineStr">
+        <is>
+          <t>RESPONSABILIDAD_PENAL</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RETIRADO_CALC</t>
+          <t>RES_DPTO</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E471">
         <v>3.03030303030303</v>
       </c>
-      <c r="P471" t="inlineStr">
-        <is>
-          <t>RETIRADO_CALC</t>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>res_dpto</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RIESGON</t>
+          <t>RETIRADO_CALC</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E472">
         <v>3.03030303030303</v>
       </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>RiesgoN</t>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>RETIRADO_CALC</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SACAÑANT</t>
+          <t>RIESGON</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -19726,74 +19731,74 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>SacAñAnt</t>
+          <t>RiesgoN</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SE IMPUTO EL CONSEDES</t>
+          <t>SACAÑANT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E474">
         <v>3.03030303030303</v>
       </c>
-      <c r="V474" t="inlineStr">
-        <is>
-          <t>Se imputo el consedes</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>SacAñAnt</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SECTOR 2</t>
+          <t>SE IMPUTO EL CONSEDES</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E475">
         <v>3.03030303030303</v>
       </c>
-      <c r="P475" t="inlineStr">
-        <is>
-          <t>SECTOR 2</t>
+      <c r="V475" t="inlineStr">
+        <is>
+          <t>Se imputo el consedes</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SECTOR SEDE</t>
+          <t>SECTOR 2</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -19814,16 +19819,16 @@
       <c r="E476">
         <v>3.03030303030303</v>
       </c>
-      <c r="N476" t="inlineStr">
-        <is>
-          <t>SECTOR SEDE</t>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>SECTOR 2</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SEDE - DUE</t>
+          <t>SECTOR SEDE</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -19844,16 +19849,16 @@
       <c r="E477">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y477" t="inlineStr">
-        <is>
-          <t>Sede - DUE</t>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>SECTOR SEDE</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SEDE EDUCATIVA</t>
+          <t>SEDE - DUE</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -19874,16 +19879,16 @@
       <c r="E478">
         <v>3.03030303030303</v>
       </c>
-      <c r="V478" t="inlineStr">
-        <is>
-          <t>Sede Educativa</t>
+      <c r="Y478" t="inlineStr">
+        <is>
+          <t>Sede - DUE</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SEDES</t>
+          <t>SEDE EDUCATIVA</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -19904,16 +19909,16 @@
       <c r="E479">
         <v>3.03030303030303</v>
       </c>
-      <c r="O479" t="inlineStr">
-        <is>
-          <t>SEDES</t>
+      <c r="V479" t="inlineStr">
+        <is>
+          <t>Sede Educativa</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SIT_ACAD_AÑO_ANT</t>
+          <t>SEDES</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -19934,16 +19939,16 @@
       <c r="E480">
         <v>3.03030303030303</v>
       </c>
-      <c r="I480" t="inlineStr">
-        <is>
-          <t>sit_acad_año_Ant</t>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>SEDES</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SIT_ACAD_AÑO_ANTERIOR</t>
+          <t>SIT_ACAD_AÑO_ANT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -19964,16 +19969,16 @@
       <c r="E481">
         <v>3.03030303030303</v>
       </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>sit_acad_año_anterior</t>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>sit_acad_año_Ant</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SUBSID</t>
+          <t>SIT_ACAD_AÑO_ANTERIOR</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -19994,16 +19999,16 @@
       <c r="E482">
         <v>3.03030303030303</v>
       </c>
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>Subsid</t>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>sit_acad_año_anterior</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SUBSIDIADA JAAM</t>
+          <t>SUBSID</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -20024,16 +20029,16 @@
       <c r="E483">
         <v>3.03030303030303</v>
       </c>
-      <c r="M483" t="inlineStr">
-        <is>
-          <t>Subsidiada JAAM</t>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Subsid</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SUMA DE EXTRAEDAD</t>
+          <t>SUBSIDIADA JAAM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -20054,69 +20059,69 @@
       <c r="E484">
         <v>3.03030303030303</v>
       </c>
-      <c r="AI484" t="inlineStr">
-        <is>
-          <t>Suma de EXTRAEDAD</t>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>Subsidiada JAAM</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SUMA DE EXTRAEDAD</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E485">
         <v>3.03030303030303</v>
       </c>
-      <c r="U485" t="inlineStr">
-        <is>
-          <t>t</t>
+      <c r="AI485" t="inlineStr">
+        <is>
+          <t>Suma de EXTRAEDAD</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TDOCACUD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E486">
         <v>3.03030303030303</v>
       </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>Tdocacud</t>
+      <c r="U486" t="inlineStr">
+        <is>
+          <t>t</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20571,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>NdocAcud</t>
+          <t>Tdocacud</t>
         </is>
       </c>
     </row>
@@ -29485,7 +29490,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_ACUDIENTE</t>
+          <t>AL_CEDU_ACUD</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -32197,10 +32202,15 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
+          <t>NRO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33023,7 +33033,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>TDOCACUD</t>
+          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
